--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H2">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>57.3554038434676</v>
+        <v>4.389289333333333</v>
       </c>
       <c r="N2">
-        <v>57.3554038434676</v>
+        <v>13.167868</v>
       </c>
       <c r="O2">
-        <v>0.5755895525522757</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="P2">
-        <v>0.5755895525522757</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="Q2">
-        <v>550.9475628359262</v>
+        <v>128.402079901956</v>
       </c>
       <c r="R2">
-        <v>550.9475628359262</v>
+        <v>1155.618719117604</v>
       </c>
       <c r="S2">
-        <v>0.3729066596139617</v>
+        <v>0.03147261054222456</v>
       </c>
       <c r="T2">
-        <v>0.3729066596139617</v>
+        <v>0.03147261054222456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H3">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.118935437961808</v>
+        <v>57.89762366666667</v>
       </c>
       <c r="N3">
-        <v>0.118935437961808</v>
+        <v>173.692871</v>
       </c>
       <c r="O3">
-        <v>0.001193575337833541</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="P3">
-        <v>0.001193575337833541</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="Q3">
-        <v>1.142476301949092</v>
+        <v>1693.708191830457</v>
       </c>
       <c r="R3">
-        <v>1.142476301949092</v>
+        <v>15243.37372647411</v>
       </c>
       <c r="S3">
-        <v>0.0007732805264714873</v>
+        <v>0.415144508051254</v>
       </c>
       <c r="T3">
-        <v>0.0007732805264714873</v>
+        <v>0.4151445080512541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H4">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I4">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J4">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.1720208533969</v>
+        <v>0.129282</v>
       </c>
       <c r="N4">
-        <v>42.1720208533969</v>
+        <v>0.387846</v>
       </c>
       <c r="O4">
-        <v>0.4232168721098907</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="P4">
-        <v>0.4232168721098907</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="Q4">
-        <v>405.0982218250241</v>
+        <v>3.781951116282</v>
       </c>
       <c r="R4">
-        <v>405.0982218250241</v>
+        <v>34.037560046538</v>
       </c>
       <c r="S4">
-        <v>0.2741891150924515</v>
+        <v>0.0009269933529375922</v>
       </c>
       <c r="T4">
-        <v>0.2741891150924515</v>
+        <v>0.0009269933529375923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2678596072411</v>
+        <v>29.253501</v>
       </c>
       <c r="H5">
-        <v>2.2678596072411</v>
+        <v>87.760503</v>
       </c>
       <c r="I5">
-        <v>0.1529563383685501</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J5">
-        <v>0.1529563383685501</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.3554038434676</v>
+        <v>47.43015733333333</v>
       </c>
       <c r="N5">
-        <v>57.3554038434676</v>
+        <v>142.290472</v>
       </c>
       <c r="O5">
-        <v>0.5755895525522757</v>
+        <v>0.4317863663729547</v>
       </c>
       <c r="P5">
-        <v>0.5755895525522757</v>
+        <v>0.4317863663729548</v>
       </c>
       <c r="Q5">
-        <v>130.0740036336011</v>
+        <v>1387.498154980824</v>
       </c>
       <c r="R5">
-        <v>130.0740036336011</v>
+        <v>12487.48339482742</v>
       </c>
       <c r="S5">
-        <v>0.08804007036158826</v>
+        <v>0.3400894213949675</v>
       </c>
       <c r="T5">
-        <v>0.08804007036158826</v>
+        <v>0.3400894213949676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H6">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I6">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J6">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.118935437961808</v>
+        <v>4.389289333333333</v>
       </c>
       <c r="N6">
-        <v>0.118935437961808</v>
+        <v>13.167868</v>
       </c>
       <c r="O6">
-        <v>0.001193575337833541</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="P6">
-        <v>0.001193575337833541</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="Q6">
-        <v>0.2697288756231141</v>
+        <v>20.84533930283155</v>
       </c>
       <c r="R6">
-        <v>0.2697288756231141</v>
+        <v>187.608053725484</v>
       </c>
       <c r="S6">
-        <v>0.0001825649132420236</v>
+        <v>0.005109397339976814</v>
       </c>
       <c r="T6">
-        <v>0.0001825649132420236</v>
+        <v>0.005109397339976816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H7">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I7">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J7">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.1720208533969</v>
+        <v>57.89762366666667</v>
       </c>
       <c r="N7">
-        <v>42.1720208533969</v>
+        <v>173.692871</v>
       </c>
       <c r="O7">
-        <v>0.4232168721098907</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="P7">
-        <v>0.4232168721098907</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="Q7">
-        <v>95.64022264914819</v>
+        <v>274.9637853658581</v>
       </c>
       <c r="R7">
-        <v>95.64022264914819</v>
+        <v>2474.674068292723</v>
       </c>
       <c r="S7">
-        <v>0.06473370309371985</v>
+        <v>0.06739632361596699</v>
       </c>
       <c r="T7">
-        <v>0.06473370309371985</v>
+        <v>0.06739632361596701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.9531306087563</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H8">
-        <v>2.9531306087563</v>
+        <v>14.247413</v>
       </c>
       <c r="I8">
-        <v>0.1991746063985653</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J8">
-        <v>0.1991746063985653</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.3554038434676</v>
+        <v>0.129282</v>
       </c>
       <c r="N8">
-        <v>57.3554038434676</v>
+        <v>0.387846</v>
       </c>
       <c r="O8">
-        <v>0.5755895525522757</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="P8">
-        <v>0.5755895525522757</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="Q8">
-        <v>169.3779986677229</v>
+        <v>0.6139780158220001</v>
       </c>
       <c r="R8">
-        <v>169.3779986677229</v>
+        <v>5.525802142398001</v>
       </c>
       <c r="S8">
-        <v>0.1146428225767258</v>
+        <v>0.0001504920402240247</v>
       </c>
       <c r="T8">
-        <v>0.1146428225767258</v>
+        <v>0.0001504920402240247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.9531306087563</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H9">
-        <v>2.9531306087563</v>
+        <v>14.247413</v>
       </c>
       <c r="I9">
-        <v>0.1991746063985653</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J9">
-        <v>0.1991746063985653</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.118935437961808</v>
+        <v>47.43015733333333</v>
       </c>
       <c r="N9">
-        <v>0.118935437961808</v>
+        <v>142.290472</v>
       </c>
       <c r="O9">
-        <v>0.001193575337833541</v>
+        <v>0.4317863663729547</v>
       </c>
       <c r="P9">
-        <v>0.001193575337833541</v>
+        <v>0.4317863663729548</v>
       </c>
       <c r="Q9">
-        <v>0.3512318823108512</v>
+        <v>225.2523467276596</v>
       </c>
       <c r="R9">
-        <v>0.3512318823108512</v>
+        <v>2027.271120548936</v>
       </c>
       <c r="S9">
-        <v>0.0002377298981200301</v>
+        <v>0.05521156189755588</v>
       </c>
       <c r="T9">
-        <v>0.0002377298981200301</v>
+        <v>0.0552115618975559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H10">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J10">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>4.389289333333333</v>
+      </c>
+      <c r="N10">
+        <v>13.167868</v>
+      </c>
+      <c r="O10">
+        <v>0.03995844413671427</v>
+      </c>
+      <c r="P10">
+        <v>0.03995844413671427</v>
+      </c>
+      <c r="Q10">
+        <v>13.77519787099245</v>
+      </c>
+      <c r="R10">
+        <v>123.976780838932</v>
+      </c>
+      <c r="S10">
+        <v>0.003376436254512898</v>
+      </c>
+      <c r="T10">
+        <v>0.003376436254512899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.9531306087563</v>
-      </c>
-      <c r="H10">
-        <v>2.9531306087563</v>
-      </c>
-      <c r="I10">
-        <v>0.1991746063985653</v>
-      </c>
-      <c r="J10">
-        <v>0.1991746063985653</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>42.1720208533969</v>
-      </c>
-      <c r="N10">
-        <v>42.1720208533969</v>
-      </c>
-      <c r="O10">
-        <v>0.4232168721098907</v>
-      </c>
-      <c r="P10">
-        <v>0.4232168721098907</v>
-      </c>
-      <c r="Q10">
-        <v>124.5394856152754</v>
-      </c>
-      <c r="R10">
-        <v>124.5394856152754</v>
-      </c>
-      <c r="S10">
-        <v>0.08429405392371943</v>
-      </c>
-      <c r="T10">
-        <v>0.08429405392371943</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H11">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J11">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>57.89762366666667</v>
+      </c>
+      <c r="N11">
+        <v>173.692871</v>
+      </c>
+      <c r="O11">
+        <v>0.5270782546422108</v>
+      </c>
+      <c r="P11">
+        <v>0.5270782546422108</v>
+      </c>
+      <c r="Q11">
+        <v>181.7039528954699</v>
+      </c>
+      <c r="R11">
+        <v>1635.335576059229</v>
+      </c>
+      <c r="S11">
+        <v>0.04453742297498972</v>
+      </c>
+      <c r="T11">
+        <v>0.04453742297498973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H12">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J12">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.129282</v>
+      </c>
+      <c r="N12">
+        <v>0.387846</v>
+      </c>
+      <c r="O12">
+        <v>0.001176934848120294</v>
+      </c>
+      <c r="P12">
+        <v>0.001176934848120294</v>
+      </c>
+      <c r="Q12">
+        <v>0.4057342763060001</v>
+      </c>
+      <c r="R12">
+        <v>3.651608486754001</v>
+      </c>
+      <c r="S12">
+        <v>9.944945495867738E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.944945495867742E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H13">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J13">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>47.43015733333333</v>
+      </c>
+      <c r="N13">
+        <v>142.290472</v>
+      </c>
+      <c r="O13">
+        <v>0.4317863663729547</v>
+      </c>
+      <c r="P13">
+        <v>0.4317863663729548</v>
+      </c>
+      <c r="Q13">
+        <v>148.8532089596365</v>
+      </c>
+      <c r="R13">
+        <v>1339.678880636728</v>
+      </c>
+      <c r="S13">
+        <v>0.03648538308043127</v>
+      </c>
+      <c r="T13">
+        <v>0.03648538308043128</v>
       </c>
     </row>
   </sheetData>
